--- a/excel_templates/items_template.xlsx
+++ b/excel_templates/items_template.xlsx
@@ -8,20 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ligangzhou/Money/rust/store-api/excel_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D5AB18-3919-704A-B348-7C3D59765A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{408949AF-359B-5844-B370-D95FAF380AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33800" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="产品列表" sheetId="1" r:id="rId1"/>
-    <sheet name="图片" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>产品大类</t>
   </si>
@@ -35,9 +66,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>681304-金色</t>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,6 +133,10 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,12 +179,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -169,6 +204,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+    <v>file:///Users/ligangzhou/Pictures/Photos%20Library.photoslibrary/originals/D/D7E1335B-7964-4EED-B766-8B0AF7617265.heic</v>
+  </rv>
+  <rv s="1">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,7 +582,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -483,13 +593,13 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -498,63 +608,72 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="117" customHeight="1">
+    <row r="2" spans="1:12" ht="284" customHeight="1">
+      <c r="A2" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>689912</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1">
-        <v>689912</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.03</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="171" customHeight="1">
+      <c r="A3" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -566,137 +685,19 @@
         <v>79832</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="J3">
         <v>1.23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="ThisWorkbook"/>
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="39.83203125" customWidth="1"/>
-    <col min="2" max="253" width="12.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="117" customHeight="1">
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>689912</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2">
-        <v>1.03</v>
-      </c>
-      <c r="K2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="171" customHeight="1">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>123</v>
-      </c>
-      <c r="F3">
-        <v>79832</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
         <v>21</v>
-      </c>
-      <c r="J3">
-        <v>1.23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/excel_templates/items_template.xlsx
+++ b/excel_templates/items_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ligangzhou/Money/rust/store-api/excel_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{408949AF-359B-5844-B370-D95FAF380AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73FB15C-8FB7-4941-91F2-6D252488D581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3460" yWindow="1820" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="产品列表" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>产品大类</t>
   </si>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,10 +583,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="ThisWorkbook"/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -591,7 +595,7 @@
     <col min="2" max="253" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -628,8 +632,11 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="284" customHeight="1">
+    <row r="2" spans="1:13" ht="284" customHeight="1">
       <c r="A2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -664,8 +671,11 @@
       <c r="L2">
         <v>0.03</v>
       </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="171" customHeight="1">
+    <row r="3" spans="1:13" ht="171" customHeight="1">
       <c r="A3" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
@@ -698,6 +708,9 @@
       </c>
       <c r="L3" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="M3">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/excel_templates/items_template.xlsx
+++ b/excel_templates/items_template.xlsx
@@ -8,47 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ligangzhou/Money/rust/store-api/excel_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73FB15C-8FB7-4941-91F2-6D252488D581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6406DA-C2B7-E747-B142-E2553B819E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="1820" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="1720" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="产品列表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="2">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="2">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-    <bk>
-      <rc t="1" v="1"/>
-    </bk>
-  </valueMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -210,79 +178,109 @@
 </styleSheet>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-    <v>file:///Users/ligangzhou/Pictures/Photos%20Library.photoslibrary/originals/D/D7E1335B-7964-4EED-B766-8B0AF7617265.heic</v>
-  </rv>
-  <rv s="1">
-    <v>1</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-    <k n="Text" t="s"/>
-  </s>
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
-</richValueRels>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2705100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2863697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA9D4FA-1A13-7232-533F-945B1C26AD9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139700" y="482600"/>
+          <a:ext cx="2565400" cy="2571597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>812801</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1663700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1968559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BB48D4-89F7-3321-C844-07C1BB618DA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812801" y="3924300"/>
+          <a:ext cx="850899" cy="1841559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -585,8 +583,8 @@
   <sheetPr codeName="ThisWorkbook"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="221" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -637,9 +635,6 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="284" customHeight="1">
-      <c r="A2" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
@@ -676,9 +671,6 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="171" customHeight="1">
-      <c r="A3" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
@@ -717,5 +709,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>